--- a/xlsx/New York Times_intext.xlsx
+++ b/xlsx/New York Times_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>New York Times</t>
   </si>
@@ -29,7 +29,7 @@
     <t>泰晤士报</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_New York Times</t>
+    <t>政策_政策_混合动力车辆_New York Times</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%8A%A5</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>紐約時報大廈</t>
+    <t>纽约时报大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>國際標準期刊號</t>
+    <t>国际标准期刊号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E6%9C%BA%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%9B%BE%E4%B9%A6%E9%A6%86%E4%B8%AD%E5%BF%83</t>
@@ -143,9 +143,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>日報</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
   </si>
   <si>
@@ -239,19 +236,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jayson_Blair</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BB%E6%96%B7%E6%9C%8D%E5%8B%99%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>阻斷服務攻擊</t>
+    <t>阻断服务攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikinews.org/wiki/%E4%B8%AD%E5%9C%8B%E9%80%B1%E4%B8%80%E8%A7%A3%E9%99%A4%E5%B0%8D%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E7%B6%B2%E7%AB%99%E7%9A%84%E5%B1%8F%E8%94%BD</t>
   </si>
   <si>
-    <t>n-中國週一解除對紐約時報網站的屏蔽</t>
+    <t>n-中国周一解除对纽约时报网站的屏蔽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -377,31 +374,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E6%9A%A2%E9%8A%B7%E6%9B%B8%E6%A6%9C</t>
   </si>
   <si>
-    <t>紐約時報暢銷書榜</t>
+    <t>纽约时报畅销书榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%99%BD%E5%AE%AE%E7%B0%A1%E5%A0%B1%E5%AE%A4%E5%BA%A7%E6%AC%A1%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-白宮簡報室座次表</t>
+    <t>Template talk-白宫简报室座次表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%B0%E7%A4%BE</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -479,15 +476,12 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
   </si>
   <si>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -551,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -587,19 +581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -617,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -701,25 +695,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
@@ -1703,7 +1697,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1729,10 +1723,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1758,10 +1752,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1787,10 +1781,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1816,10 +1810,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1845,10 +1839,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1874,10 +1868,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1903,10 +1897,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1932,10 +1926,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1961,10 +1955,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1990,10 +1984,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2048,10 +2042,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2077,10 +2071,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2106,10 +2100,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2135,10 +2129,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2164,10 +2158,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2193,10 +2187,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2222,10 +2216,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2251,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2280,10 +2274,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2309,10 +2303,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2338,10 +2332,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2367,10 +2361,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>8</v>
@@ -2396,10 +2390,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2425,10 +2419,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2454,10 +2448,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2483,10 +2477,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2512,10 +2506,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2541,10 +2535,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2570,10 +2564,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2599,10 +2593,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2628,10 +2622,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2657,10 +2651,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2686,10 +2680,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -2715,10 +2709,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2744,10 +2738,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2773,10 +2767,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2802,10 +2796,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2831,10 +2825,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2860,10 +2854,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2889,10 +2883,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>13</v>
@@ -2918,10 +2912,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2947,10 +2941,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2976,10 +2970,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3005,10 +2999,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3034,10 +3028,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3063,10 +3057,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3092,10 +3086,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3121,10 +3115,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3150,10 +3144,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3179,10 +3173,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3208,10 +3202,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3237,10 +3231,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3266,10 +3260,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3295,10 +3289,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3324,10 +3318,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3353,10 +3347,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3382,10 +3376,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3411,10 +3405,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3440,10 +3434,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3469,10 +3463,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3498,10 +3492,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3527,10 +3521,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3556,10 +3550,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3585,10 +3579,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F86" t="s">
         <v>145</v>
-      </c>
-      <c r="F86" t="s">
-        <v>146</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3614,10 +3608,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3643,10 +3637,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3672,10 +3666,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3701,10 +3695,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3730,10 +3724,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3759,10 +3753,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3788,10 +3782,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3817,10 +3811,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3846,10 +3840,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3875,10 +3869,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3904,10 +3898,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3933,10 +3927,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3962,10 +3956,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3991,10 +3985,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4020,10 +4014,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4049,10 +4043,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4078,10 +4072,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4107,10 +4101,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4136,10 +4130,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4165,10 +4159,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4194,10 +4188,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4223,10 +4217,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4252,10 +4246,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4281,10 +4275,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4310,10 +4304,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4339,10 +4333,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4368,10 +4362,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4397,10 +4391,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4426,10 +4420,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4455,10 +4449,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4484,10 +4478,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4513,10 +4507,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4542,10 +4536,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -4571,10 +4565,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4600,10 +4594,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4629,10 +4623,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4658,10 +4652,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4687,10 +4681,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>7</v>
@@ -4716,10 +4710,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>241</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
